--- a/Karthik'sSampleOutput.xlsx
+++ b/Karthik'sSampleOutput.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{07A66A28-AF50-4E41-9D78-9BD8899DCB07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12300" yWindow="1080" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT" sheetId="1" r:id="rId1"/>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
